--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="143">
   <si>
     <t>Número</t>
   </si>
@@ -40,13 +40,16 @@
     <t>PE 08/2023</t>
   </si>
   <si>
+    <t>PE 13/2023</t>
+  </si>
+  <si>
     <t>PE 01/2024</t>
   </si>
   <si>
     <t>PE 07/2023</t>
   </si>
   <si>
-    <t>PE 13/2023</t>
+    <t>PE 04/2024</t>
   </si>
   <si>
     <t>PE 04/2023</t>
@@ -58,16 +61,13 @@
     <t>PE 06/2024</t>
   </si>
   <si>
-    <t>PE 04/2024</t>
-  </si>
-  <si>
     <t>PE 07/2024</t>
   </si>
   <si>
     <t>PE 08/2024</t>
   </si>
   <si>
-    <t>CC 1001/2024</t>
+    <t>CC 01/2024</t>
   </si>
   <si>
     <t>PE 03/2024</t>
@@ -79,58 +79,97 @@
     <t>PE 15/2024</t>
   </si>
   <si>
+    <t>PE 31/2024</t>
+  </si>
+  <si>
+    <t>PE 29/2024</t>
+  </si>
+  <si>
+    <t>PE 17/2024</t>
+  </si>
+  <si>
+    <t>PE 16/2024</t>
+  </si>
+  <si>
+    <t>PE 44/2024</t>
+  </si>
+  <si>
     <t>PE 14/2024</t>
   </si>
   <si>
+    <t>PE 12/2024</t>
+  </si>
+  <si>
     <t>PE 11/2024</t>
   </si>
   <si>
-    <t>PE 31/2024</t>
+    <t>PE 10/2024</t>
+  </si>
+  <si>
+    <t>PE 02/2024</t>
   </si>
   <si>
     <t>PE 09/2024</t>
   </si>
   <si>
-    <t>PE 29/2024</t>
-  </si>
-  <si>
-    <t>PE 02/2024</t>
-  </si>
-  <si>
-    <t>PE 12/2024</t>
-  </si>
-  <si>
-    <t>PE 16/2024</t>
-  </si>
-  <si>
-    <t>PE 17/2024</t>
+    <t>PE 13/2024</t>
+  </si>
+  <si>
+    <t>PE 32/2024</t>
+  </si>
+  <si>
+    <t>PE 30/2024</t>
+  </si>
+  <si>
+    <t>PE 28/2024</t>
+  </si>
+  <si>
+    <t>PE 27/2024</t>
+  </si>
+  <si>
+    <t>PE 26/2024</t>
+  </si>
+  <si>
+    <t>PE 24/2024</t>
+  </si>
+  <si>
+    <t>PE 23/2024</t>
+  </si>
+  <si>
+    <t>PE 22/2024</t>
+  </si>
+  <si>
+    <t>PE 21/2024</t>
+  </si>
+  <si>
+    <t>PE 20/2024</t>
+  </si>
+  <si>
+    <t>PE 19/2024</t>
   </si>
   <si>
     <t>PE 18/2024</t>
   </si>
   <si>
-    <t>PE 19/2024</t>
-  </si>
-  <si>
-    <t>PE 20/2024</t>
-  </si>
-  <si>
-    <t>PE 10/2024</t>
-  </si>
-  <si>
-    <t>PE 13/2024</t>
+    <t>PE 25/2024</t>
+  </si>
+  <si>
+    <t>PE 33/2024</t>
   </si>
   <si>
     <t>Panificados</t>
   </si>
   <si>
-    <t>Gás</t>
+    <t>Material de Pintura</t>
+  </si>
+  <si>
+    <t>Gás Liquefeito de Petróleo (GLP)</t>
   </si>
   <si>
     <t>Frigorificados – CFAT</t>
   </si>
   <si>
-    <t>Material de Pintura</t>
+    <t>Cestas Básicas</t>
   </si>
   <si>
     <t>Gêneros Secos</t>
@@ -142,9 +181,6 @@
     <t>Telefonia Fixa</t>
   </si>
   <si>
-    <t>Cestas Básicas</t>
-  </si>
-  <si>
     <t>Água Mineral</t>
   </si>
   <si>
@@ -163,112 +199,229 @@
     <t>Material de Higiene e Limpeza</t>
   </si>
   <si>
+    <t>Gêneros Laticínios e Frios</t>
+  </si>
+  <si>
+    <t>Gêneros Hortifrutigranjeiros</t>
+  </si>
+  <si>
+    <t>Pisos e Revestimentos</t>
+  </si>
+  <si>
+    <t>Material para Copa e Cozinha</t>
+  </si>
+  <si>
+    <t>Serviços comuns de engenharia CFAT</t>
+  </si>
+  <si>
     <t>Material de Expediente</t>
   </si>
   <si>
+    <t>Serviços de Ornamentação</t>
+  </si>
+  <si>
     <t>Bebidas não-alcoólicas</t>
   </si>
   <si>
-    <t xml:space="preserve">Laticínios </t>
-  </si>
-  <si>
-    <t>Moto Aquática</t>
-  </si>
-  <si>
-    <t>Hortifrutigranjeiros</t>
+    <t>Material de Carpintaria</t>
   </si>
   <si>
     <t>Transporte de Carga</t>
   </si>
   <si>
+    <t>Aquisição de Moto Aquática</t>
+  </si>
+  <si>
+    <t>Montagem de Palanque</t>
+  </si>
+  <si>
+    <t>Equipamento de Informática</t>
+  </si>
+  <si>
+    <t>Gêneros Frigorificados</t>
+  </si>
+  <si>
     <t>Material Hidráulico</t>
   </si>
   <si>
-    <t>Pisos e Revestimentos</t>
+    <t>Seguro de Viaturas</t>
+  </si>
+  <si>
+    <t>Material de Representação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periféricos de Informática </t>
+  </si>
+  <si>
+    <t>Mobiliários Corporativos</t>
+  </si>
+  <si>
+    <t>Serviços Gráficos Especializados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material Esportivo (PROFESP) </t>
+  </si>
+  <si>
+    <t>Material de Segurança Orgânica</t>
   </si>
   <si>
     <t xml:space="preserve">Serviço de Transporte de Pessoal </t>
   </si>
   <si>
-    <t>Material de Segurança Orgânica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Material Esportivo (PROFESP) </t>
-  </si>
-  <si>
-    <t>Material Escolar</t>
-  </si>
-  <si>
-    <t>Material de Carpintaria</t>
-  </si>
-  <si>
-    <t>Equipamento de Informática</t>
+    <t>Material de Academia</t>
+  </si>
+  <si>
+    <t>Marinharia e Salvatagem</t>
+  </si>
+  <si>
+    <t>CeIMBra</t>
+  </si>
+  <si>
+    <t>Com7ºDN</t>
+  </si>
+  <si>
+    <t>GptFNB</t>
   </si>
   <si>
     <t>CFAT</t>
   </si>
   <si>
-    <t>GptFNB</t>
-  </si>
-  <si>
-    <t>Com7ºDN</t>
-  </si>
-  <si>
-    <t>CeIMBra</t>
+    <t>CFB</t>
+  </si>
+  <si>
+    <t>CIAB</t>
   </si>
   <si>
     <t>ERMB</t>
   </si>
   <si>
+    <t>Assinatura Contrato</t>
+  </si>
+  <si>
     <t>Homologado</t>
   </si>
   <si>
     <t>Sessão Pública</t>
   </si>
   <si>
+    <t>Divulgado</t>
+  </si>
+  <si>
+    <t>AGU</t>
+  </si>
+  <si>
     <t>Recomendações AGU</t>
   </si>
   <si>
-    <t>CJACM</t>
-  </si>
-  <si>
     <t>IRP</t>
   </si>
   <si>
+    <t>Planejamento</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>34</t>
+    <t>24</t>
   </si>
   <si>
     <t>Concluído</t>
   </si>
   <si>
+    <t>Em recurso</t>
+  </si>
+  <si>
     <t>Edital</t>
   </si>
   <si>
     <t>Setor Responsável</t>
   </si>
   <si>
-    <t>Planejamento</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>SG Peterson</t>
+  </si>
+  <si>
+    <t>SG Joan</t>
   </si>
   <si>
     <t>SG Macário</t>
   </si>
   <si>
-    <t>SG Joan</t>
+    <t>SG Dimas</t>
+  </si>
+  <si>
+    <t>SG Vasconcelos</t>
   </si>
   <si>
     <t>Ten Juliana Araújo</t>
@@ -277,10 +430,7 @@
     <t>Ten Ana Paula</t>
   </si>
   <si>
-    <t>SG Dimas</t>
-  </si>
-  <si>
-    <t>SG Peterson</t>
+    <t>Ten Bruna</t>
   </si>
   <si>
     <t>Centro de Intendência da Marinha em Brasília</t>
@@ -292,7 +442,7 @@
     <t>Controle do Plano de Contratações Anual (PCA) 2024</t>
   </si>
   <si>
-    <t>Atualizado em: 04/04/2024</t>
+    <t>Atualizado em: 15/04/2024</t>
   </si>
 </sst>
 </file>
@@ -701,7 +851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -719,7 +869,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -731,7 +881,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -743,7 +893,7 @@
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -755,7 +905,7 @@
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -796,25 +946,25 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -822,25 +972,25 @@
         <v>8</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -848,25 +998,25 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -874,25 +1024,25 @@
         <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -900,25 +1050,25 @@
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -926,25 +1076,25 @@
         <v>12</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -952,25 +1102,25 @@
         <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -978,25 +1128,25 @@
         <v>14</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1004,25 +1154,25 @@
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1030,25 +1180,25 @@
         <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1056,25 +1206,25 @@
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1082,25 +1232,25 @@
         <v>18</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1108,25 +1258,25 @@
         <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1134,25 +1284,25 @@
         <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1160,25 +1310,25 @@
         <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1186,73 +1336,77 @@
         <v>22</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1260,49 +1414,51 @@
         <v>25</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1310,25 +1466,25 @@
         <v>27</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1336,25 +1492,25 @@
         <v>28</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1362,25 +1518,25 @@
         <v>29</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1388,25 +1544,25 @@
         <v>30</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1414,25 +1570,25 @@
         <v>31</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1440,25 +1596,25 @@
         <v>32</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1466,25 +1622,23 @@
         <v>33</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>73</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1492,26 +1646,310 @@
         <v>34</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>73</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="F33" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="C40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H45" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="121">
   <si>
     <t>Número</t>
   </si>
@@ -61,99 +61,99 @@
     <t>PE 06/2024</t>
   </si>
   <si>
+    <t>CC 01/2024</t>
+  </si>
+  <si>
+    <t>PE 03/2024</t>
+  </si>
+  <si>
+    <t>PE 05/2024</t>
+  </si>
+  <si>
+    <t>PE 08/2024</t>
+  </si>
+  <si>
     <t>PE 07/2024</t>
   </si>
   <si>
-    <t>PE 08/2024</t>
-  </si>
-  <si>
-    <t>CC 01/2024</t>
-  </si>
-  <si>
-    <t>PE 03/2024</t>
-  </si>
-  <si>
-    <t>PE 05/2024</t>
+    <t>PE 09/2024</t>
+  </si>
+  <si>
+    <t>PE 11/2024</t>
+  </si>
+  <si>
+    <t>PE 14/2024</t>
   </si>
   <si>
     <t>PE 15/2024</t>
   </si>
   <si>
+    <t>PE 16/2024</t>
+  </si>
+  <si>
+    <t>PE 02/2024</t>
+  </si>
+  <si>
+    <t>PE 12/2024</t>
+  </si>
+  <si>
+    <t>PE 13/2024</t>
+  </si>
+  <si>
+    <t>PE 10/2024</t>
+  </si>
+  <si>
+    <t>PE 17/2024</t>
+  </si>
+  <si>
+    <t>PE 18/2024</t>
+  </si>
+  <si>
+    <t>PE 19/2024</t>
+  </si>
+  <si>
+    <t>PE 20/2024</t>
+  </si>
+  <si>
+    <t>PE 21/2024</t>
+  </si>
+  <si>
+    <t>PE 22/2024</t>
+  </si>
+  <si>
+    <t>PE 23/2024</t>
+  </si>
+  <si>
+    <t>PE 24/2024</t>
+  </si>
+  <si>
+    <t>PE 25/2024</t>
+  </si>
+  <si>
+    <t>PE 26/2024</t>
+  </si>
+  <si>
+    <t>PE 27/2024</t>
+  </si>
+  <si>
+    <t>PE 28/2024</t>
+  </si>
+  <si>
+    <t>PE 29/2024</t>
+  </si>
+  <si>
+    <t>PE 30/2024</t>
+  </si>
+  <si>
     <t>PE 31/2024</t>
   </si>
   <si>
-    <t>PE 29/2024</t>
-  </si>
-  <si>
-    <t>PE 17/2024</t>
-  </si>
-  <si>
-    <t>PE 16/2024</t>
+    <t>PE 32/2024</t>
   </si>
   <si>
     <t>PE 44/2024</t>
   </si>
   <si>
-    <t>PE 14/2024</t>
-  </si>
-  <si>
-    <t>PE 12/2024</t>
-  </si>
-  <si>
-    <t>PE 11/2024</t>
-  </si>
-  <si>
-    <t>PE 10/2024</t>
-  </si>
-  <si>
-    <t>PE 02/2024</t>
-  </si>
-  <si>
-    <t>PE 09/2024</t>
-  </si>
-  <si>
-    <t>PE 13/2024</t>
-  </si>
-  <si>
-    <t>PE 32/2024</t>
-  </si>
-  <si>
-    <t>PE 30/2024</t>
-  </si>
-  <si>
-    <t>PE 28/2024</t>
-  </si>
-  <si>
-    <t>PE 27/2024</t>
-  </si>
-  <si>
-    <t>PE 26/2024</t>
-  </si>
-  <si>
-    <t>PE 24/2024</t>
-  </si>
-  <si>
-    <t>PE 23/2024</t>
-  </si>
-  <si>
-    <t>PE 22/2024</t>
-  </si>
-  <si>
-    <t>PE 21/2024</t>
-  </si>
-  <si>
-    <t>PE 20/2024</t>
-  </si>
-  <si>
-    <t>PE 19/2024</t>
-  </si>
-  <si>
-    <t>PE 18/2024</t>
-  </si>
-  <si>
-    <t>PE 25/2024</t>
-  </si>
-  <si>
     <t>PE 33/2024</t>
   </si>
   <si>
@@ -181,96 +181,96 @@
     <t>Telefonia Fixa</t>
   </si>
   <si>
+    <t>Nova Sede da CFB</t>
+  </si>
+  <si>
+    <t>Manutenção de Elevadores</t>
+  </si>
+  <si>
+    <t>Provedor de Internet</t>
+  </si>
+  <si>
+    <t>Material Permanente de Rancho</t>
+  </si>
+  <si>
     <t>Água Mineral</t>
   </si>
   <si>
-    <t>Material Permanente de Rancho</t>
-  </si>
-  <si>
-    <t>Nova Sede da CFB</t>
-  </si>
-  <si>
-    <t>Manutenção de Elevadores</t>
-  </si>
-  <si>
-    <t>Provedor de Internet</t>
+    <t>Aquisição de Moto Aquática</t>
+  </si>
+  <si>
+    <t>Bebidas não-alcoólicas</t>
+  </si>
+  <si>
+    <t>Material de Expediente</t>
   </si>
   <si>
     <t>Material de Higiene e Limpeza</t>
   </si>
   <si>
+    <t>Material para Copa e Cozinha</t>
+  </si>
+  <si>
+    <t>Transporte de Carga</t>
+  </si>
+  <si>
+    <t>Serviços de Ornamentação</t>
+  </si>
+  <si>
+    <t>Montagem de Palanque</t>
+  </si>
+  <si>
+    <t>Material de Carpintaria</t>
+  </si>
+  <si>
+    <t>Pisos e Revestimentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviço de Transporte de Pessoal </t>
+  </si>
+  <si>
+    <t>Material de Segurança Orgânica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material Esportivo (PROFESP) </t>
+  </si>
+  <si>
+    <t>Serviços Gráficos Especializados</t>
+  </si>
+  <si>
+    <t>Mobiliários Corporativos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periféricos de Informática </t>
+  </si>
+  <si>
+    <t>Material de Representação</t>
+  </si>
+  <si>
+    <t>Material de Academia</t>
+  </si>
+  <si>
+    <t>Seguro de Viaturas</t>
+  </si>
+  <si>
+    <t>Material Hidráulico</t>
+  </si>
+  <si>
+    <t>Gêneros Frigorificados</t>
+  </si>
+  <si>
+    <t>Gêneros Hortifrutigranjeiros</t>
+  </si>
+  <si>
     <t>Gêneros Laticínios e Frios</t>
   </si>
   <si>
-    <t>Gêneros Hortifrutigranjeiros</t>
-  </si>
-  <si>
-    <t>Pisos e Revestimentos</t>
-  </si>
-  <si>
-    <t>Material para Copa e Cozinha</t>
+    <t>Equipamento de Informática</t>
   </si>
   <si>
     <t>Serviços comuns de engenharia CFAT</t>
   </si>
   <si>
-    <t>Material de Expediente</t>
-  </si>
-  <si>
-    <t>Serviços de Ornamentação</t>
-  </si>
-  <si>
-    <t>Bebidas não-alcoólicas</t>
-  </si>
-  <si>
-    <t>Material de Carpintaria</t>
-  </si>
-  <si>
-    <t>Transporte de Carga</t>
-  </si>
-  <si>
-    <t>Aquisição de Moto Aquática</t>
-  </si>
-  <si>
-    <t>Montagem de Palanque</t>
-  </si>
-  <si>
-    <t>Equipamento de Informática</t>
-  </si>
-  <si>
-    <t>Gêneros Frigorificados</t>
-  </si>
-  <si>
-    <t>Material Hidráulico</t>
-  </si>
-  <si>
-    <t>Seguro de Viaturas</t>
-  </si>
-  <si>
-    <t>Material de Representação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Periféricos de Informática </t>
-  </si>
-  <si>
-    <t>Mobiliários Corporativos</t>
-  </si>
-  <si>
-    <t>Serviços Gráficos Especializados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Material Esportivo (PROFESP) </t>
-  </si>
-  <si>
-    <t>Material de Segurança Orgânica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviço de Transporte de Pessoal </t>
-  </si>
-  <si>
-    <t>Material de Academia</t>
-  </si>
-  <si>
     <t>Marinharia e Salvatagem</t>
   </si>
   <si>
@@ -289,12 +289,12 @@
     <t>CFB</t>
   </si>
   <si>
+    <t>ERMB</t>
+  </si>
+  <si>
     <t>CIAB</t>
   </si>
   <si>
-    <t>ERMB</t>
-  </si>
-  <si>
     <t>Assinatura Contrato</t>
   </si>
   <si>
@@ -304,109 +304,43 @@
     <t>Sessão Pública</t>
   </si>
   <si>
-    <t>Divulgado</t>
+    <t>Pré-Publicação</t>
+  </si>
+  <si>
+    <t>Recomendações AGU</t>
   </si>
   <si>
     <t>AGU</t>
   </si>
   <si>
-    <t>Recomendações AGU</t>
-  </si>
-  <si>
     <t>IRP</t>
   </si>
   <si>
     <t>Planejamento</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>26</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>Concluído</t>
   </si>
   <si>
     <t>Em recurso</t>
   </si>
   <si>
-    <t>Edital</t>
-  </si>
-  <si>
     <t>Setor Responsável</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>55</t>
+    <t>1</t>
   </si>
   <si>
     <t>SG Peterson</t>
@@ -442,7 +376,7 @@
     <t>Controle do Plano de Contratações Anual (PCA) 2024</t>
   </si>
   <si>
-    <t>Atualizado em: 15/04/2024</t>
+    <t>Atualizado em: 16/04/2024</t>
   </si>
 </sst>
 </file>
@@ -869,7 +803,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -881,7 +815,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -893,7 +827,7 @@
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -905,7 +839,7 @@
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -958,13 +892,13 @@
         <v>101</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -981,16 +915,16 @@
         <v>93</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1007,16 +941,16 @@
         <v>93</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1033,16 +967,16 @@
         <v>94</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>93</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1059,16 +993,16 @@
         <v>95</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1085,16 +1019,16 @@
         <v>96</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>95</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1111,16 +1045,16 @@
         <v>96</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>95</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1137,16 +1071,16 @@
         <v>96</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>95</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1157,22 +1091,22 @@
         <v>55</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>97</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1183,22 +1117,22 @@
         <v>56</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1209,22 +1143,22 @@
         <v>57</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1235,22 +1169,22 @@
         <v>58</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1261,22 +1195,22 @@
         <v>59</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>98</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1287,22 +1221,22 @@
         <v>60</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1319,16 +1253,16 @@
         <v>99</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1339,22 +1273,22 @@
         <v>62</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1368,19 +1302,19 @@
         <v>87</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1397,16 +1331,16 @@
         <v>99</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1417,22 +1351,22 @@
         <v>65</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>100</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1446,19 +1380,19 @@
         <v>87</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1475,16 +1409,16 @@
         <v>100</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1495,22 +1429,20 @@
         <v>68</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>99</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1523,20 +1455,18 @@
       <c r="C28" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>100</v>
-      </c>
+      <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>104</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1547,22 +1477,20 @@
         <v>70</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>100</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1573,22 +1501,20 @@
         <v>71</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>99</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D30" s="5"/>
       <c r="E30" s="5" t="s">
         <v>104</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>104</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1599,22 +1525,20 @@
         <v>72</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>100</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1625,20 +1549,20 @@
         <v>73</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1646,23 +1570,23 @@
         <v>34</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>100</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1670,23 +1594,23 @@
         <v>35</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1694,23 +1618,23 @@
         <v>36</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>87</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>100</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1718,23 +1642,23 @@
         <v>37</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1742,23 +1666,23 @@
         <v>38</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>87</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>100</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1766,23 +1690,23 @@
         <v>39</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1790,23 +1714,23 @@
         <v>40</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>100</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1814,23 +1738,23 @@
         <v>41</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1838,23 +1762,23 @@
         <v>42</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>100</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1865,20 +1789,20 @@
         <v>82</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1893,16 +1817,16 @@
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>100</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1913,20 +1837,20 @@
         <v>84</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1941,15 +1865,17 @@
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>100</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H45" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="161">
   <si>
     <t>Número</t>
   </si>
@@ -40,21 +40,24 @@
     <t>PE 08/2023</t>
   </si>
   <si>
+    <t>PE 01/2024</t>
+  </si>
+  <si>
+    <t>PE 04/2023</t>
+  </si>
+  <si>
+    <t>PE 07/2023</t>
+  </si>
+  <si>
     <t>PE 13/2023</t>
   </si>
   <si>
-    <t>PE 01/2024</t>
-  </si>
-  <si>
-    <t>PE 07/2023</t>
+    <t>TJIL 01/2024</t>
   </si>
   <si>
     <t>PE 04/2024</t>
   </si>
   <si>
-    <t>PE 04/2023</t>
-  </si>
-  <si>
     <t>PE 10/2023</t>
   </si>
   <si>
@@ -76,33 +79,45 @@
     <t>PE 07/2024</t>
   </si>
   <si>
+    <t>PE 15/2024</t>
+  </si>
+  <si>
+    <t>PE 14/2024</t>
+  </si>
+  <si>
+    <t>TJDL 01/2024</t>
+  </si>
+  <si>
     <t>PE 09/2024</t>
   </si>
   <si>
     <t>PE 11/2024</t>
   </si>
   <si>
-    <t>PE 14/2024</t>
-  </si>
-  <si>
-    <t>PE 15/2024</t>
+    <t>PE 29/2024</t>
+  </si>
+  <si>
+    <t>PE 31/2024</t>
+  </si>
+  <si>
+    <t>PE 02/2024</t>
+  </si>
+  <si>
+    <t>PE 12/2024</t>
+  </si>
+  <si>
+    <t>PE 13/2024</t>
+  </si>
+  <si>
+    <t>PE 44/2024</t>
+  </si>
+  <si>
+    <t>PE 10/2024</t>
   </si>
   <si>
     <t>PE 16/2024</t>
   </si>
   <si>
-    <t>PE 02/2024</t>
-  </si>
-  <si>
-    <t>PE 12/2024</t>
-  </si>
-  <si>
-    <t>PE 13/2024</t>
-  </si>
-  <si>
-    <t>PE 10/2024</t>
-  </si>
-  <si>
     <t>PE 17/2024</t>
   </si>
   <si>
@@ -139,42 +154,42 @@
     <t>PE 28/2024</t>
   </si>
   <si>
-    <t>PE 29/2024</t>
-  </si>
-  <si>
     <t>PE 30/2024</t>
   </si>
   <si>
-    <t>PE 31/2024</t>
-  </si>
-  <si>
     <t>PE 32/2024</t>
   </si>
   <si>
-    <t>PE 44/2024</t>
-  </si>
-  <si>
     <t>PE 33/2024</t>
   </si>
   <si>
+    <t>PE 35/2024</t>
+  </si>
+  <si>
+    <t>PE 45/2024</t>
+  </si>
+  <si>
     <t>Panificados</t>
   </si>
   <si>
+    <t>Gás Liquefeito de Petróleo (GLP)</t>
+  </si>
+  <si>
+    <t>Gêneros Secos</t>
+  </si>
+  <si>
+    <t>Frigorificados – CFAT</t>
+  </si>
+  <si>
     <t>Material de Pintura</t>
   </si>
   <si>
-    <t>Gás Liquefeito de Petróleo (GLP)</t>
-  </si>
-  <si>
-    <t>Frigorificados – CFAT</t>
+    <t>EBC</t>
   </si>
   <si>
     <t>Cestas Básicas</t>
   </si>
   <si>
-    <t>Gêneros Secos</t>
-  </si>
-  <si>
     <t>Material Elétrico e Eletrônico</t>
   </si>
   <si>
@@ -196,33 +211,45 @@
     <t>Água Mineral</t>
   </si>
   <si>
-    <t>Aquisição de Moto Aquática</t>
+    <t>Material de Higiene e Limpeza</t>
+  </si>
+  <si>
+    <t>Material de Expediente</t>
+  </si>
+  <si>
+    <t>Agricultura Familiar</t>
+  </si>
+  <si>
+    <t>Moto Aquática</t>
   </si>
   <si>
     <t>Bebidas não-alcoólicas</t>
   </si>
   <si>
-    <t>Material de Expediente</t>
-  </si>
-  <si>
-    <t>Material de Higiene e Limpeza</t>
+    <t>Gêneros Hortifrutigranjeiros</t>
+  </si>
+  <si>
+    <t>Gêneros Laticínios e Frios</t>
+  </si>
+  <si>
+    <t>Transporte de Carga</t>
+  </si>
+  <si>
+    <t>Serviços de Ornamentação</t>
+  </si>
+  <si>
+    <t>Montagem de Palanque</t>
+  </si>
+  <si>
+    <t>Serviços Comuns de Engenharia</t>
+  </si>
+  <si>
+    <t>Material de Carpintaria</t>
   </si>
   <si>
     <t>Material para Copa e Cozinha</t>
   </si>
   <si>
-    <t>Transporte de Carga</t>
-  </si>
-  <si>
-    <t>Serviços de Ornamentação</t>
-  </si>
-  <si>
-    <t>Montagem de Palanque</t>
-  </si>
-  <si>
-    <t>Material de Carpintaria</t>
-  </si>
-  <si>
     <t>Pisos e Revestimentos</t>
   </si>
   <si>
@@ -259,33 +286,30 @@
     <t>Gêneros Frigorificados</t>
   </si>
   <si>
-    <t>Gêneros Hortifrutigranjeiros</t>
-  </si>
-  <si>
-    <t>Gêneros Laticínios e Frios</t>
-  </si>
-  <si>
     <t>Equipamento de Informática</t>
   </si>
   <si>
-    <t>Serviços comuns de engenharia CFAT</t>
-  </si>
-  <si>
     <t>Marinharia e Salvatagem</t>
   </si>
   <si>
+    <t>Gestão de Frota</t>
+  </si>
+  <si>
+    <t>testes</t>
+  </si>
+  <si>
     <t>CeIMBra</t>
   </si>
   <si>
+    <t>GptFNB</t>
+  </si>
+  <si>
+    <t>CFAT</t>
+  </si>
+  <si>
     <t>Com7ºDN</t>
   </si>
   <si>
-    <t>GptFNB</t>
-  </si>
-  <si>
-    <t>CFAT</t>
-  </si>
-  <si>
     <t>CFB</t>
   </si>
   <si>
@@ -301,6 +325,9 @@
     <t>Homologado</t>
   </si>
   <si>
+    <t>Nota Técnica</t>
+  </si>
+  <si>
     <t>Sessão Pública</t>
   </si>
   <si>
@@ -313,19 +340,70 @@
     <t>AGU</t>
   </si>
   <si>
+    <t>Montagem do Processo</t>
+  </si>
+  <si>
+    <t>Setor Responsável</t>
+  </si>
+  <si>
     <t>IRP</t>
   </si>
   <si>
     <t>Planejamento</t>
   </si>
   <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>40</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>-</t>
@@ -337,10 +415,43 @@
     <t>Em recurso</t>
   </si>
   <si>
-    <t>Setor Responsável</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>48</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
   <si>
     <t>SG Peterson</t>
@@ -349,24 +460,33 @@
     <t>SG Joan</t>
   </si>
   <si>
+    <t>SG Vasconcelos</t>
+  </si>
+  <si>
     <t>SG Macário</t>
   </si>
   <si>
     <t>SG Dimas</t>
   </si>
   <si>
-    <t>SG Vasconcelos</t>
-  </si>
-  <si>
     <t>Ten Juliana Araújo</t>
   </si>
   <si>
     <t>Ten Ana Paula</t>
   </si>
   <si>
+    <t>teste</t>
+  </si>
+  <si>
     <t>Ten Bruna</t>
   </si>
   <si>
+    <t>Juliana</t>
+  </si>
+  <si>
+    <t>Ten Torres</t>
+  </si>
+  <si>
     <t>Centro de Intendência da Marinha em Brasília</t>
   </si>
   <si>
@@ -376,7 +496,7 @@
     <t>Controle do Plano de Contratações Anual (PCA) 2024</t>
   </si>
   <si>
-    <t>Atualizado em: 16/04/2024</t>
+    <t>Atualizado em: 29/04/2024</t>
   </si>
 </sst>
 </file>
@@ -785,7 +905,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -803,7 +923,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -815,7 +935,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -827,7 +947,7 @@
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -839,7 +959,7 @@
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -880,25 +1000,25 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -906,25 +1026,25 @@
         <v>8</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -932,25 +1052,25 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="G8" s="5" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -958,25 +1078,25 @@
         <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -984,25 +1104,25 @@
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1010,51 +1130,49 @@
         <v>12</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>113</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1062,25 +1180,25 @@
         <v>14</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1088,25 +1206,25 @@
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1114,25 +1232,25 @@
         <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1140,25 +1258,25 @@
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1166,25 +1284,25 @@
         <v>18</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1192,25 +1310,25 @@
         <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1218,25 +1336,25 @@
         <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1244,25 +1362,25 @@
         <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1270,25 +1388,25 @@
         <v>22</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1296,51 +1414,49 @@
         <v>23</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>104</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1348,25 +1464,25 @@
         <v>25</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1374,25 +1490,25 @@
         <v>26</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1400,25 +1516,25 @@
         <v>27</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1426,23 +1542,25 @@
         <v>28</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="E27" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1450,23 +1568,25 @@
         <v>29</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="E28" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1474,23 +1594,25 @@
         <v>30</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="E29" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1498,47 +1620,47 @@
         <v>31</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="E30" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>104</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1546,23 +1668,23 @@
         <v>33</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1570,23 +1692,23 @@
         <v>34</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1594,23 +1716,23 @@
         <v>35</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1618,23 +1740,23 @@
         <v>36</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1642,23 +1764,23 @@
         <v>37</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1666,23 +1788,23 @@
         <v>38</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1690,23 +1812,23 @@
         <v>39</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1714,23 +1836,23 @@
         <v>40</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1738,23 +1860,23 @@
         <v>41</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1762,23 +1884,23 @@
         <v>42</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1786,23 +1908,23 @@
         <v>43</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1810,23 +1932,23 @@
         <v>44</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1834,23 +1956,23 @@
         <v>45</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1858,24 +1980,116 @@
         <v>46</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>104</v>
-      </c>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H49" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="155">
   <si>
     <t>Número</t>
   </si>
@@ -64,6 +64,9 @@
     <t>PE 06/2024</t>
   </si>
   <si>
+    <t>PE 08/2024</t>
+  </si>
+  <si>
     <t>CC 01/2024</t>
   </si>
   <si>
@@ -73,9 +76,6 @@
     <t>PE 05/2024</t>
   </si>
   <si>
-    <t>PE 08/2024</t>
-  </si>
-  <si>
     <t>PE 07/2024</t>
   </si>
   <si>
@@ -193,6 +193,9 @@
     <t>Telefonia Fixa</t>
   </si>
   <si>
+    <t>Material Permanente de Rancho</t>
+  </si>
+  <si>
     <t>Nova Sede da CFB</t>
   </si>
   <si>
@@ -202,9 +205,6 @@
     <t>Provedor de Internet</t>
   </si>
   <si>
-    <t>Material Permanente de Rancho</t>
-  </si>
-  <si>
     <t>Água Mineral</t>
   </si>
   <si>
@@ -373,15 +373,15 @@
     <t>14</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>53</t>
   </si>
   <si>
     <t>173</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>35</t>
   </si>
   <si>
@@ -409,43 +409,40 @@
     <t>Em recurso</t>
   </si>
   <si>
-    <t>12</t>
+    <t>52</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
   <si>
     <t>49</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>25</t>
+    <t>23</t>
   </si>
   <si>
     <t>SG Peterson</t>
@@ -481,7 +478,7 @@
     <t>Controle do Plano de Contratações Anual (PCA) 2024</t>
   </si>
   <si>
-    <t>Atualizado em: 30/04/2024</t>
+    <t>Atualizado em: 03/05/2024</t>
   </si>
 </sst>
 </file>
@@ -908,7 +905,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -920,7 +917,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -932,7 +929,7 @@
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -944,7 +941,7 @@
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1003,7 +1000,7 @@
         <v>128</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1029,7 +1026,7 @@
         <v>128</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1052,10 +1049,10 @@
         <v>99</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1078,10 +1075,10 @@
         <v>99</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1104,10 +1101,10 @@
         <v>99</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1130,7 +1127,7 @@
         <v>99</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -1154,10 +1151,10 @@
         <v>130</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1180,10 +1177,10 @@
         <v>102</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1206,10 +1203,10 @@
         <v>102</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1220,22 +1217,22 @@
         <v>59</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>119</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1246,22 +1243,22 @@
         <v>60</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>104</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1278,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>103</v>
@@ -1287,7 +1284,7 @@
         <v>136</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1298,7 +1295,7 @@
         <v>62</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>104</v>
@@ -1313,7 +1310,7 @@
         <v>137</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1362,7 +1359,7 @@
         <v>101</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>128</v>
@@ -1388,7 +1385,7 @@
         <v>106</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>128</v>
@@ -1542,7 +1539,7 @@
         <v>107</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>128</v>
@@ -1568,7 +1565,7 @@
         <v>107</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>128</v>
@@ -1594,7 +1591,7 @@
         <v>107</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>128</v>
@@ -1620,7 +1617,7 @@
         <v>107</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="H30" s="5"/>
     </row>

--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="137">
   <si>
     <t>Número</t>
   </si>
@@ -37,75 +37,75 @@
     <t>Pregoeiro</t>
   </si>
   <si>
+    <t>TJIL 01/2024</t>
+  </si>
+  <si>
+    <t>PE 06/2024</t>
+  </si>
+  <si>
+    <t>PE 31/2024</t>
+  </si>
+  <si>
+    <t>TJDL 01/2024</t>
+  </si>
+  <si>
+    <t>PE 23/2024</t>
+  </si>
+  <si>
+    <t>PE 02/2024</t>
+  </si>
+  <si>
+    <t>PE 09/2024</t>
+  </si>
+  <si>
+    <t>PE 11/2024</t>
+  </si>
+  <si>
+    <t>PE 29/2024</t>
+  </si>
+  <si>
     <t>PE 08/2023</t>
   </si>
   <si>
     <t>PE 01/2024</t>
   </si>
   <si>
+    <t>PE 05/2024</t>
+  </si>
+  <si>
+    <t>PE 13/2023</t>
+  </si>
+  <si>
+    <t>CC 01/2024</t>
+  </si>
+  <si>
     <t>PE 04/2023</t>
   </si>
   <si>
     <t>PE 07/2023</t>
   </si>
   <si>
-    <t>PE 13/2023</t>
-  </si>
-  <si>
-    <t>TJIL 01/2024</t>
-  </si>
-  <si>
-    <t>PE 06/2024</t>
+    <t>PE 07/2024</t>
+  </si>
+  <si>
+    <t>PE 14/2024</t>
+  </si>
+  <si>
+    <t>PE 15/2024</t>
+  </si>
+  <si>
+    <t>PE 10/2023</t>
+  </si>
+  <si>
+    <t>PE 03/2024</t>
   </si>
   <si>
     <t>PE 04/2024</t>
   </si>
   <si>
-    <t>PE 10/2023</t>
-  </si>
-  <si>
-    <t>PE 03/2024</t>
-  </si>
-  <si>
     <t>PE 08/2024</t>
   </si>
   <si>
-    <t>CC 01/2024</t>
-  </si>
-  <si>
-    <t>PE 05/2024</t>
-  </si>
-  <si>
-    <t>PE 07/2024</t>
-  </si>
-  <si>
-    <t>PE 14/2024</t>
-  </si>
-  <si>
-    <t>PE 15/2024</t>
-  </si>
-  <si>
-    <t>TJDL 01/2024</t>
-  </si>
-  <si>
-    <t>PE 23/2024</t>
-  </si>
-  <si>
-    <t>PE 09/2024</t>
-  </si>
-  <si>
-    <t>PE 11/2024</t>
-  </si>
-  <si>
-    <t>PE 29/2024</t>
-  </si>
-  <si>
-    <t>PE 31/2024</t>
-  </si>
-  <si>
-    <t>PE 02/2024</t>
-  </si>
-  <si>
     <t>PE 12/2024</t>
   </si>
   <si>
@@ -166,123 +166,102 @@
     <t>PE 35/2024</t>
   </si>
   <si>
-    <t>Panificados</t>
-  </si>
-  <si>
-    <t>Gás Liquefeito de Petróleo (GLP)</t>
+    <t>EBC</t>
+  </si>
+  <si>
+    <t>Telefonia Fixa</t>
+  </si>
+  <si>
+    <t>Gêneros Laticínios e Frios</t>
+  </si>
+  <si>
+    <t>Agricultura Familiar</t>
+  </si>
+  <si>
+    <t>Periféricos de Informática</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Aquisição de Moto Aquática</t>
+  </si>
+  <si>
+    <t>Bebidas não-alcoólicas</t>
+  </si>
+  <si>
+    <t>Gêneros Hortifrutigranjeiros</t>
+  </si>
+  <si>
+    <t>Provedor de Internet</t>
+  </si>
+  <si>
+    <t>Água Mineral</t>
+  </si>
+  <si>
+    <t>Material de Expediente</t>
+  </si>
+  <si>
+    <t>Material de Higiene e Limpeza</t>
+  </si>
+  <si>
+    <t>Cestas Básicas</t>
+  </si>
+  <si>
+    <t>Material Permanente de Rancho</t>
+  </si>
+  <si>
+    <t>Serviços de Ornamentação</t>
+  </si>
+  <si>
+    <t>Montagem de Palanque</t>
+  </si>
+  <si>
+    <t>Serviços Comuns de Engenharia</t>
+  </si>
+  <si>
+    <t>Material de Carpintaria</t>
+  </si>
+  <si>
+    <t>Material para Copa e Cozinha</t>
+  </si>
+  <si>
+    <t>Pisos e Revestimentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviço de Transporte de Pessoal </t>
+  </si>
+  <si>
+    <t>Material de Segurança Orgânica</t>
+  </si>
+  <si>
+    <t>Material Esportivo (PROFESP)</t>
+  </si>
+  <si>
+    <t>Serviços Gráficos Especializados</t>
+  </si>
+  <si>
+    <t>Mobiliários Corporativos</t>
+  </si>
+  <si>
+    <t>Material de Representação</t>
+  </si>
+  <si>
+    <t>Material de Academia</t>
+  </si>
+  <si>
+    <t>Seguro de Viaturas</t>
+  </si>
+  <si>
+    <t>Material Hidráulico</t>
+  </si>
+  <si>
+    <t>Gêneros Frigorificados</t>
   </si>
   <si>
     <t>Gêneros Secos</t>
   </si>
   <si>
-    <t>Frigorificados – CFAT</t>
-  </si>
-  <si>
-    <t>Material de Pintura</t>
-  </si>
-  <si>
-    <t>EBC</t>
-  </si>
-  <si>
-    <t>Telefonia Fixa</t>
-  </si>
-  <si>
-    <t>Cestas Básicas</t>
-  </si>
-  <si>
-    <t>Material Elétrico e Eletrônico</t>
-  </si>
-  <si>
-    <t>Manutenção de Elevadores</t>
-  </si>
-  <si>
-    <t>Material Permanente de Rancho</t>
-  </si>
-  <si>
-    <t>Nova Sede da CFB</t>
-  </si>
-  <si>
-    <t>Provedor de Internet</t>
-  </si>
-  <si>
-    <t>Água Mineral</t>
-  </si>
-  <si>
-    <t>Material de Expediente</t>
-  </si>
-  <si>
-    <t>Material de Higiene e Limpeza</t>
-  </si>
-  <si>
-    <t>Agricultura Familiar</t>
-  </si>
-  <si>
-    <t>Periféricos de Informática</t>
-  </si>
-  <si>
-    <t>Aquisição de Moto Aquática</t>
-  </si>
-  <si>
-    <t>Bebidas não-alcoólicas</t>
-  </si>
-  <si>
-    <t>Gêneros Hortifrutigranjeiros</t>
-  </si>
-  <si>
-    <t>Gêneros Laticínios e Frios</t>
-  </si>
-  <si>
-    <t>Transporte de Carga</t>
-  </si>
-  <si>
-    <t>Serviços de Ornamentação</t>
-  </si>
-  <si>
-    <t>Montagem de Palanque</t>
-  </si>
-  <si>
-    <t>Serviços Comuns de Engenharia</t>
-  </si>
-  <si>
-    <t>Material de Carpintaria</t>
-  </si>
-  <si>
-    <t>Material para Copa e Cozinha</t>
-  </si>
-  <si>
-    <t>Pisos e Revestimentos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviço de Transporte de Pessoal </t>
-  </si>
-  <si>
-    <t>Material de Segurança Orgânica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Material Esportivo (PROFESP) </t>
-  </si>
-  <si>
-    <t>Serviços Gráficos Especializados</t>
-  </si>
-  <si>
-    <t>Mobiliários Corporativos</t>
-  </si>
-  <si>
-    <t>Material de Representação</t>
-  </si>
-  <si>
-    <t>Material de Academia</t>
-  </si>
-  <si>
-    <t>Seguro de Viaturas</t>
-  </si>
-  <si>
-    <t>Material Hidráulico</t>
-  </si>
-  <si>
-    <t>Gêneros Frigorificados</t>
-  </si>
-  <si>
     <t>Equipamento de Informática</t>
   </si>
   <si>
@@ -295,18 +274,21 @@
     <t>CeIMBra</t>
   </si>
   <si>
+    <t>CFGO</t>
+  </si>
+  <si>
+    <t>Com7ºDN</t>
+  </si>
+  <si>
+    <t>CFB</t>
+  </si>
+  <si>
     <t>GptFNB</t>
   </si>
   <si>
     <t>CFAT</t>
   </si>
   <si>
-    <t>Com7ºDN</t>
-  </si>
-  <si>
-    <t>CFB</t>
-  </si>
-  <si>
     <t>ERMB</t>
   </si>
   <si>
@@ -319,130 +301,73 @@
     <t>Homologado</t>
   </si>
   <si>
+    <t>Impugnado</t>
+  </si>
+  <si>
     <t>Nota Técnica</t>
   </si>
   <si>
+    <t>IRP</t>
+  </si>
+  <si>
+    <t>Setor Responsável</t>
+  </si>
+  <si>
+    <t>Concluído</t>
+  </si>
+  <si>
+    <t>Em recurso</t>
+  </si>
+  <si>
+    <t>Recomendações AGU</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Sessão Pública</t>
   </si>
   <si>
-    <t>Pré-Publicação</t>
-  </si>
-  <si>
-    <t>Recomendações AGU</t>
-  </si>
-  <si>
     <t>AGU</t>
   </si>
   <si>
-    <t>Setor Responsável</t>
-  </si>
-  <si>
-    <t>IRP</t>
-  </si>
-  <si>
     <t>Planejamento</t>
   </si>
   <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Concluído</t>
-  </si>
-  <si>
-    <t>Em recurso</t>
-  </si>
-  <si>
-    <t>Montagem do Processo</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>34</t>
+    <t>xxxx</t>
   </si>
   <si>
     <t>SG Peterson</t>
@@ -457,21 +382,18 @@
     <t>SG Macário</t>
   </si>
   <si>
-    <t>Ten Ana Paula</t>
+    <t>Sg Dimas</t>
+  </si>
+  <si>
+    <t>Ten Juliana Araújo</t>
+  </si>
+  <si>
+    <t>Ten Bruna</t>
   </si>
   <si>
     <t>SG Dimas</t>
   </si>
   <si>
-    <t>Ten Juliana Araújo</t>
-  </si>
-  <si>
-    <t>Ten Bruna</t>
-  </si>
-  <si>
-    <t>Sg Dimas</t>
-  </si>
-  <si>
     <t>Centro de Intendência da Marinha em Brasília</t>
   </si>
   <si>
@@ -481,7 +403,38 @@
     <t>Controle do Plano de Contratações Anual (PCA) 2024</t>
   </si>
   <si>
-    <t>Atualizado em: 09/05/2024</t>
+    <t>Atualizado em: 14/05/2024</t>
+  </si>
+  <si>
+    <t>Comentários</t>
+  </si>
+  <si>
+    <t>teste
+testes
+tests
+novo comentário para jane
+teste para demonstração ao SO Creni</t>
+  </si>
+  <si>
+    <t>Aguardando Provisionamento de crédito (Ten Brayner é o responsável)
+Retornou por nota da CJACM e será enviado para correções</t>
+  </si>
+  <si>
+    <t>testes testes testes testes testes testes testes testes testes testes testes testes testes testes testes testes testes testes testes testes testes testes testes
+testes testes testes testes testes testes testes testes testes testes testes testes testes testes testes testes testes</t>
+  </si>
+  <si>
+    <t>testes
+testse testes testse testes testse testes testse testes testse testes testse testes testse testes testse testes testse testes testse testes
+novo novo novo novo novo novo novo novo novo novo novo novo novo novo novo novo novo novo novo novo novo novo novo novo novo novo novo novo</t>
+  </si>
+  <si>
+    <t>testestes</t>
+  </si>
+  <si>
+    <t>ten dayanne ficou de lancar o irp
+Lançou o irp tal data
+testes</t>
   </si>
 </sst>
 </file>
@@ -549,7 +502,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -572,11 +525,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -595,6 +557,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -890,13 +858,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
@@ -908,7 +876,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -920,7 +888,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -932,7 +900,7 @@
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -944,7 +912,7 @@
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -988,23 +956,21 @@
         <v>50</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>143</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="6" t="s">
@@ -1014,22 +980,22 @@
         <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1040,22 +1006,22 @@
         <v>52</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="G8" s="5" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1066,23 +1032,21 @@
         <v>53</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>146</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
@@ -1092,22 +1056,22 @@
         <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1118,21 +1082,23 @@
         <v>55</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="5" t="s">
@@ -1142,22 +1108,22 @@
         <v>56</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1168,22 +1134,22 @@
         <v>57</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1194,22 +1160,22 @@
         <v>58</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1217,25 +1183,25 @@
         <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1243,25 +1209,25 @@
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1269,25 +1235,25 @@
         <v>18</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1295,25 +1261,25 @@
         <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1321,25 +1287,25 @@
         <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1347,25 +1313,25 @@
         <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1373,25 +1339,25 @@
         <v>22</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1399,49 +1365,51 @@
         <v>23</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1449,25 +1417,25 @@
         <v>25</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1475,25 +1443,25 @@
         <v>26</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1501,25 +1469,25 @@
         <v>27</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1527,25 +1495,25 @@
         <v>28</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E27" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1553,25 +1521,25 @@
         <v>29</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="H28" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1579,25 +1547,25 @@
         <v>30</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="H29" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1605,25 +1573,25 @@
         <v>31</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="H30" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1631,22 +1599,22 @@
         <v>32</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="H31" s="6"/>
     </row>
@@ -1655,23 +1623,23 @@
         <v>33</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1679,23 +1647,23 @@
         <v>34</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1703,23 +1671,23 @@
         <v>35</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1727,23 +1695,23 @@
         <v>36</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1751,23 +1719,23 @@
         <v>37</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1775,23 +1743,23 @@
         <v>38</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1799,23 +1767,23 @@
         <v>39</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1823,23 +1791,23 @@
         <v>40</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1847,23 +1815,23 @@
         <v>41</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1871,23 +1839,23 @@
         <v>42</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1895,23 +1863,23 @@
         <v>43</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1919,23 +1887,23 @@
         <v>44</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1943,23 +1911,23 @@
         <v>45</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1967,23 +1935,23 @@
         <v>46</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1991,23 +1959,23 @@
         <v>47</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2015,23 +1983,23 @@
         <v>48</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2039,29 +2007,132 @@
         <v>49</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="H48" s="5"/>
     </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" s="8" customFormat="1" ht="75" customHeight="1">
+      <c r="A50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A52" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" s="8" customFormat="1" ht="45" customHeight="1">
+      <c r="A53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" s="8" customFormat="1">
+      <c r="A54" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" s="8" customFormat="1" ht="45" customHeight="1">
+      <c r="A55" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="11">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B55:H55"/>
   </mergeCells>
   <pageMargins left="0.79" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
